--- a/data/long_razon/P23_1-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_1-Urba-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>59,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>43,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 73,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-30,33; 19,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,31; 100,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 41,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,49; 71,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 24,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-20,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>70,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-17,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-18,84%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 65,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,88; 1,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,52; 127,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,9; 1,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,01; 76,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,59; -5,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-14,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>116,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>51,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,72%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-30,41; 103,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-48,58; 42,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,83; 275,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 57,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,46; 124,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,49; 31,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>69,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-7,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,42 +1015,64 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,9; 54,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 2,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>44,4; 100,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 14,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,39; 62,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 3,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/long_razon/P23_1-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_1-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -630,329 +635,217 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.3956421812872843</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.08741763064175019</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.126393283368241</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.607884417328302</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.06797137180553388</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.0780860490963627</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.493091698395579</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.008823473951471796</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.007858229346166775</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.076260034771277</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.3121416571518618</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.1788451323409407</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.2890226003973115</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.126762494008891</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.2747971869217096</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.2487125797839399</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.17042028560785</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.1640754932597323</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.803223650442673</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.1602206628992632</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.5413317459269318</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.06387020682733</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.3494154121302008</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.1839211207265921</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.7740838519239118</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.1461303812509619</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.2140957720882324</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.2412147252863805</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.2233913218626759</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.08914380190144978</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.6814351013103118</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.1708254499712247</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.1463398684201592</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.4428063744867408</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.1963293455249602</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.1185572537941105</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.1460705027202535</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.3873757658910144</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3473641162929039</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.2471852579969959</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.3300769450339993</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.3331470042437465</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.1526600733187028</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.3223186969112156</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.298915285741618</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.703461867528384</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.02311995340758143</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2425669272586186</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.176647113784383</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.0231557754935837</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.1190926256420853</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.7853546630511085</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>-0.05418857960403927</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.07083824458578872</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -960,107 +853,215 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.1967784998644407</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.1316766137689722</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.2584973040165071</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.139455709479128</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.05104280382371094</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.07849644811424837</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.5308117759355793</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.04000519970892782</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.1200293973191862</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.2769160395577801</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.5293953661469152</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.661535355352083</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2473872779316659</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.3007239048387261</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.3449116915390823</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.118349712179559</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.3117902943568249</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.4631606886874531</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.108973558112374</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.3348753319084354</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.4230166584826406</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.603833135536785</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.5360380969803</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.8435178291242456</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.253894371851758</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.2913187660733169</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.3488132878752572</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.3046121713716985</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.1498655435771009</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.02775375830162255</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.6910858301147194</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.03618514842291626</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.08706063998650733</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.4768907826336217</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.09199171063970622</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.05922906811969603</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.076953578339478</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2912710980570092</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2210620338482858</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.4245029332273105</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.1557900860885806</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.2293093237257662</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.2869088021207452</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.1829309848653953</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.1624684559339618</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.5758270293541558</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.003964404829236138</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.195572076323005</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.9684087871956939</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.1183158887457435</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.08266756978702935</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.6757317159053029</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.01363445242249634</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.08364985777414245</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1069,13 +1070,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
